--- a/data/trans_dic/P2A_fisi_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P2A_fisi_R-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -534,7 +535,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Hogares con personas con limitación, discapacidad física</t>
+          <t>Hogares con personas con limitación por discapacidad física</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,91; 5,56</t>
+          <t>1,87; 5,35</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,86; 7,72</t>
+          <t>2,72; 7,86</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,23; 6,24</t>
+          <t>2,05; 6,16</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,84; 12,28</t>
+          <t>6,85; 12,16</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,71; 6,05</t>
+          <t>1,83; 5,93</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,57; 9,53</t>
+          <t>3,56; 9,17</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,74; 7,72</t>
+          <t>2,48; 7,62</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,25; 7,99</t>
+          <t>4,21; 7,97</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,23; 4,72</t>
+          <t>2,11; 4,76</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>3,59; 7,24</t>
+          <t>3,62; 7,3</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>2,79; 5,89</t>
+          <t>2,81; 5,9</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>6,03; 9,22</t>
+          <t>6,07; 9,52</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,28; 5,19</t>
+          <t>1,3; 5,07</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,36; 8,2</t>
+          <t>3,35; 8,07</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,8; 7,1</t>
+          <t>2,67; 6,99</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,91; 9,86</t>
+          <t>4,91; 9,83</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,59; 7,18</t>
+          <t>2,57; 7,07</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,61; 9,39</t>
+          <t>3,87; 9,43</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,47; 5,74</t>
+          <t>1,72; 5,91</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,53; 8,64</t>
+          <t>4,61; 8,68</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,36; 5,46</t>
+          <t>2,37; 5,16</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>4,13; 7,76</t>
+          <t>4,14; 7,81</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,57; 5,59</t>
+          <t>2,56; 5,71</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>5,29; 8,75</t>
+          <t>5,35; 8,58</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,17; 8,11</t>
+          <t>4,12; 7,97</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,15; 10,99</t>
+          <t>6,06; 10,78</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,57; 8,78</t>
+          <t>4,45; 8,94</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,97; 13,78</t>
+          <t>2,77; 13,71</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,6; 13,03</t>
+          <t>4,48; 13,65</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,97; 13,12</t>
+          <t>5,77; 12,74</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,39; 13,85</t>
+          <t>4,34; 14,65</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>8,0; 17,25</t>
+          <t>8,12; 16,9</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,74; 8,41</t>
+          <t>4,86; 8,48</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>6,65; 10,63</t>
+          <t>6,73; 10,8</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>5,09; 8,95</t>
+          <t>5,05; 8,99</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,73; 13,37</t>
+          <t>3,52; 13,21</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,04; 7,71</t>
+          <t>5,04; 7,89</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,58; 11,11</t>
+          <t>7,42; 11,23</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,94; 8,04</t>
+          <t>4,94; 8,2</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>10,42; 14,39</t>
+          <t>10,44; 14,58</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,01; 8,77</t>
+          <t>4,76; 8,95</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>7,64; 12,13</t>
+          <t>7,63; 12,06</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,33; 9,1</t>
+          <t>5,33; 8,91</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>8,35; 61,46</t>
+          <t>8,32; 62,88</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,39; 7,62</t>
+          <t>5,35; 7,66</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>8,03; 11,03</t>
+          <t>8,09; 10,89</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>5,51; 7,79</t>
+          <t>5,57; 7,83</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>10,44; 44,46</t>
+          <t>10,5; 42,88</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,99; 9,65</t>
+          <t>3,88; 9,17</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,06; 9,49</t>
+          <t>4,61; 9,31</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,89; 7,89</t>
+          <t>3,93; 7,8</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>14,11; 21,18</t>
+          <t>13,83; 21,05</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,35; 9,7</t>
+          <t>5,5; 10,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>8,83; 13,64</t>
+          <t>8,86; 13,47</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>6,12; 10,46</t>
+          <t>6,06; 10,34</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>9,56; 15,52</t>
+          <t>9,72; 15,31</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>5,42; 8,94</t>
+          <t>5,48; 8,99</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>7,89; 11,38</t>
+          <t>7,77; 11,18</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>5,62; 8,56</t>
+          <t>5,54; 8,41</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>11,81; 16,47</t>
+          <t>11,91; 16,71</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,9; 4,89</t>
+          <t>0,89; 4,45</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,18; 7,89</t>
+          <t>2,63; 8,27</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>3,09; 8,13</t>
+          <t>2,84; 8,06</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,42; 10,22</t>
+          <t>2,2; 9,8</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>5,33; 7,96</t>
+          <t>5,18; 8,21</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>7,54; 11,0</t>
+          <t>7,39; 11,02</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>6,31; 9,73</t>
+          <t>6,17; 9,67</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>13,24; 17,75</t>
+          <t>13,43; 17,67</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>4,6; 6,94</t>
+          <t>4,63; 6,97</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>6,74; 9,71</t>
+          <t>6,88; 10,09</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>5,93; 8,82</t>
+          <t>5,91; 8,79</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>10,98; 15,01</t>
+          <t>11,09; 14,84</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>4,25; 5,73</t>
+          <t>4,29; 5,84</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>6,4; 8,25</t>
+          <t>6,49; 8,37</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,8; 6,36</t>
+          <t>4,8; 6,41</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>8,08; 11,87</t>
+          <t>8,21; 11,84</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>5,43; 7,17</t>
+          <t>5,5; 7,27</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>8,16; 10,16</t>
+          <t>8,14; 10,08</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>6,09; 7,9</t>
+          <t>5,99; 7,86</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>10,58; 32,74</t>
+          <t>10,48; 32,16</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>5,07; 6,23</t>
+          <t>5,06; 6,19</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>7,62; 8,9</t>
+          <t>7,62; 8,94</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>5,64; 6,82</t>
+          <t>5,71; 6,89</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>10,4; 23,66</t>
+          <t>10,32; 21,59</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares con personas con limitación por discapacidad física</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>15710</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>20528</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>15727</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>45557</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>10423</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>18363</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>16069</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>26331</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>26133</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>38891</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>31795</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>71888</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>8870; 25337</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>11880; 34361</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>8812; 26450</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>34612; 61430</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>5609; 18200</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>11181; 28845</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>8597; 26429</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>18855; 35685</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>16440; 37124</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>27235; 54843</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>21810; 45793</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>57855; 90684</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>9950</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>22691</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>16787</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>31916</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>16315</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>20267</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>11756</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>24851</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>26265</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>42958</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>28543</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>56767</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>4754; 18616</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>14034; 33794</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>10060; 26376</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>22196; 44449</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>9555; 26276</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>13091; 31883</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>6396; 22009</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>17630; 33216</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>17490; 38100</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>31331; 59104</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>19161; 42828</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>44662; 71618</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>32026</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>52619</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>33561</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>53832</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>13650</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>23418</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>13580</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>19767</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>45676</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>76037</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>47141</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>73599</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>22338; 43249</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>38128; 67876</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>23232; 46645</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>18523; 91628</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>7518; 22899</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>15011; 33129</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>7204; 24333</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>13559; 28207</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>34487; 60192</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>59845; 96085</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>34717; 61857</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>29358; 110346</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>286</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>77315</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>106443</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>73432</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>127917</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>47262</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>74812</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>57577</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>273853</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>124578</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>181255</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>131008</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>401770</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>62369; 97669</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>85967; 130186</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>56750; 94304</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>108021; 150913</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>33979; 63920</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>58480; 92460</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>44039; 73564</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>81349; 615058</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>104451; 149633</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>155801; 209723</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>110109; 154596</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>211337; 863044</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>215</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>308</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>22160</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>35674</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>34775</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>82188</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>42365</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>85251</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>59207</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>109220</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>64525</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>120924</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>93981</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>191408</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>13614; 32161</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>23527; 47550</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>24392; 48397</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>65710; 100020</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>31298; 56897</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>67460; 102558</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>44772; 76323</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>81810; 128782</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>50354; 82671</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>98887; 142238</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>75244; 114300</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>156773; 219994</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>6449</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>12550</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>14213</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>12007</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>81514</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>101242</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>85282</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>117738</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>87963</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>113792</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>99495</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>129745</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>2657; 13272</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>7018; 22084</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>8164; 23143</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>5292; 23575</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>64677; 102497</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>81935; 122198</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>66797; 104647</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>102260; 134521</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>71599; 107838</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>94696; 138892</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>80975; 120333</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>111067; 148664</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>227</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>415</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>296</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>666</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>362</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>523</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>395</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>1081</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>163611</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>250504</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>188494</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>353417</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>211529</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>323353</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>243470</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>571760</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>375140</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>573857</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>431964</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>925176</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>140338; 191001</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>222171; 286352</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>162492; 216872</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>277017; 399573</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>185848; 245617</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>289043; 357987</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>211641; 277644</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>374886; 1150682</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>336574; 411677</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>531612; 623567</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>394680; 476333</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>717501; 1501352</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P2A_fisi_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P2A_fisi_R-Clase-trans_dic.xlsx
@@ -1347,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2837,7 +2837,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
